--- a/orga/RACI Template/RACI.xlsx
+++ b/orga/RACI Template/RACI.xlsx
@@ -1,40 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Asus WebStorage\desbrueresa1@gmail.com\MySyncFolder\2éme Année\S2\Projet annuel\RACI Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X240\Dropbox\0. Gantt\11. Fichiers Bonus\2. RACI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F40061-A4B6-4A1E-8523-8AF3C6ABD6FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="RACI" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+  <si>
+    <t>Albane</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
+  </si>
+  <si>
+    <t>Coralie</t>
+  </si>
+  <si>
+    <t>Wilfried</t>
+  </si>
+  <si>
+    <t>Kassim</t>
+  </si>
+  <si>
+    <t>Aissetou</t>
+  </si>
+  <si>
+    <t>Rumeysa</t>
+  </si>
+  <si>
+    <t>Salimatou</t>
+  </si>
   <si>
     <t>Activity / Scope 1</t>
   </si>
@@ -135,20 +150,11 @@
   <si>
     <t>(R)</t>
   </si>
-  <si>
-    <t>Kilian</t>
-  </si>
-  <si>
-    <t>Vivian</t>
-  </si>
-  <si>
-    <t>Antoine</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,14 +354,14 @@
     <xf numFmtId="9" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -409,7 +415,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -417,13 +423,7 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -477,11 +477,6 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
@@ -658,6 +653,18 @@
             </a:rPr>
             <a:t> : Monitors the progress, accoutable for the results</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1050">
               <a:solidFill>
@@ -752,34 +759,26 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>157163</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>309908</xdr:rowOff>
+      <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6067425" y="3990975"/>
-          <a:ext cx="4763" cy="433733"/>
+        <a:xfrm flipV="1">
+          <a:off x="9886950" y="4038600"/>
+          <a:ext cx="0" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -813,26 +812,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -872,26 +865,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>309908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>59429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -979,11 +966,6 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="ZoneTexte 6">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
@@ -1313,11 +1295,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C11"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,172 +1313,247 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="D3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="M4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="16" t="s">
+    </row>
+    <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="9"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="12" t="str">
-        <f>IF(COUNTIF(D5:F5,"R")+COUNTIF(D5:F5,"A")=0,"Who is doing the job ?","")</f>
-        <v>Who is doing the job ?</v>
-      </c>
-      <c r="I5" s="12" t="str">
-        <f>IF(COUNTIF(D5:F5,"A")&gt;1,"Who is accountable ?","")</f>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="12" t="str">
+        <f>IF(COUNTIF(D5:K5,"R")+COUNTIF(D5:K5,"A")=0,"Who is doing the job ?","")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17"/>
+      <c r="N5" s="12" t="str">
+        <f>IF(COUNTIF(D5:K5,"A")&gt;1,"Who is accountable ?","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="16"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="12" t="str">
-        <f>IF(COUNTIF(D6:F6,"R")+COUNTIF(D6:F6,"A")=0,"Who is doing the job ?","")</f>
-        <v>Who is doing the job ?</v>
-      </c>
-      <c r="I6" s="12" t="str">
-        <f>IF(COUNTIF(D6:F6,"A")&gt;1,"Who is accountable ?","")</f>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="12" t="str">
+        <f t="shared" ref="M6:M11" si="0">IF(COUNTIF(D6:K6,"R")+COUNTIF(D6:K6,"A")=0,"Who is doing the job ?","")</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="17"/>
+      <c r="N6" s="12" t="str">
+        <f t="shared" ref="N6:N11" si="1">IF(COUNTIF(D6:K6,"A")&gt;1,"Who is accountable ?","")</f>
+        <v>Who is accountable ?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="12" t="str">
-        <f>IF(COUNTIF(D7:F7,"R")+COUNTIF(D7:F7,"A")=0,"Who is doing the job ?","")</f>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>Who is doing the job ?</v>
       </c>
-      <c r="I7" s="12" t="str">
-        <f>IF(COUNTIF(D7:F7,"A")&gt;1,"Who is accountable ?","")</f>
+      <c r="N7" s="12" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="4"/>
+    <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="12" t="str">
-        <f>IF(COUNTIF(D8:F8,"R")+COUNTIF(D8:F8,"A")=0,"Who is doing the job ?","")</f>
-        <v>Who is doing the job ?</v>
-      </c>
-      <c r="I8" s="12" t="str">
-        <f>IF(COUNTIF(D8:F8,"A")&gt;1,"Who is accountable ?","")</f>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="4"/>
+      <c r="N8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="12" t="str">
-        <f>IF(COUNTIF(D9:F9,"R")+COUNTIF(D9:F9,"A")=0,"Who is doing the job ?","")</f>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>Who is doing the job ?</v>
       </c>
-      <c r="I9" s="12" t="str">
-        <f>IF(COUNTIF(D9:F9,"A")&gt;1,"Who is accountable ?","")</f>
+      <c r="N10" s="12" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="12" t="str">
-        <f>IF(COUNTIF(D10:F10,"R")+COUNTIF(D10:F10,"A")=0,"Who is doing the job ?","")</f>
-        <v>Who is doing the job ?</v>
-      </c>
-      <c r="I10" s="12" t="str">
-        <f>IF(COUNTIF(D10:F10,"A")&gt;1,"Who is accountable ?","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="17"/>
+    <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="12" t="str">
-        <f>IF(COUNTIF(D11:F11,"R")+COUNTIF(D11:F11,"A")=0,"Who is doing the job ?","")</f>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>Who is doing the job ?</v>
       </c>
-      <c r="I11" s="12" t="str">
-        <f>IF(COUNTIF(D11:F11,"A")&gt;1,"Who is accountable ?","")</f>
+      <c r="N11" s="12" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1506,68 +1563,137 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>15</v>
+    <row r="13" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D13" s="14">
         <f>COUNTIF(D$5:D$11,"R")/ROWS(D$5:D$11)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" ref="E13:K13" si="2">COUNTIF(E$5:E$11,"R")/ROWS(E$5:E$11)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="14">
-        <f t="shared" ref="E13:F13" si="0">COUNTIF(E$5:E$11,"R")/ROWS(E$5:E$11)</f>
+      <c r="F13" s="14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F13" s="14">
-        <f t="shared" si="0"/>
+      <c r="G13" s="14">
+        <f t="shared" si="2"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="2"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
+      <c r="J13" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
       <c r="C14" s="13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D14" s="14">
-        <f t="shared" ref="D14:F14" si="1">COUNTIF(D$5:D$11,"A")/ROWS(D$5:D$11)</f>
+        <f t="shared" ref="D14:K14" si="3">COUNTIF(D$5:D$11,"A")/ROWS(D$5:D$11)</f>
         <v>0</v>
       </c>
       <c r="E14" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F14" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
+      <c r="I14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
       <c r="C15" s="13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D15" s="15" t="str">
         <f>IF(COUNTIF(D$5:D$11,"R")+COUNTIF(D$5:D$11,"A")=0,"Can we eliminate the function ?","")</f>
+        <v/>
+      </c>
+      <c r="E15" s="15" t="str">
+        <f t="shared" ref="E15:K15" si="4">IF(COUNTIF(E$5:E$11,"R")+COUNTIF(E$5:E$11,"A")=0,"Can we eliminate the function ?","")</f>
         <v>Can we eliminate the function ?</v>
       </c>
-      <c r="E15" s="15" t="str">
-        <f t="shared" ref="E15:F15" si="2">IF(COUNTIF(E$5:E$11,"R")+COUNTIF(E$5:E$11,"A")=0,"Can we eliminate the function ?","")</f>
+      <c r="F15" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G15" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H15" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I15" s="15" t="str">
+        <f t="shared" si="4"/>
         <v>Can we eliminate the function ?</v>
       </c>
-      <c r="F15" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="J15" s="15" t="str">
+        <f t="shared" si="4"/>
         <v>Can we eliminate the function ?</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="K15" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>Can we eliminate the function ?</v>
+      </c>
+      <c r="L15" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B5:C5"/>
@@ -1575,23 +1701,19 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D13:F14">
+  <conditionalFormatting sqref="D13:K14">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:F13">
+  <conditionalFormatting sqref="D13:K13">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D11">
       <formula1>$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -1601,17 +1723,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:F11</xm:sqref>
+          <xm:sqref>E5:K11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1620,7 +1742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1634,32 +1756,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
